--- a/WBS_bentool.xlsx
+++ b/WBS_bentool.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firej\github\bentool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BC2191-AF15-4433-8540-37947E1F4833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="345" yWindow="4455" windowWidth="30900" windowHeight="17745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>프로젝트 : bentool</t>
   </si>
@@ -61,9 +70,6 @@
     <t>7 ~ 13</t>
   </si>
   <si>
-    <t>14 ~ 18</t>
-  </si>
-  <si>
     <t>착수</t>
   </si>
   <si>
@@ -149,41 +155,66 @@
   </si>
   <si>
     <t>프로젝트 산출물</t>
+  </si>
+  <si>
+    <t>14 ~ 20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>21 ~ 27</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="8.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="&quot;Apple SD Gothic Neo&quot;"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="&quot;Apple SD Gothic Neo&quot;"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -191,7 +222,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -231,61 +262,64 @@
     </fill>
   </fills>
   <borders count="8">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -294,9 +328,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -305,108 +341,101 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -596,412 +625,436 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="33.14"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
-        <v>12.0</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="E3" s="3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="20"/>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="15"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="23" t="s">
+      <c r="D8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="23" t="s">
+      <c r="D9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="23" t="s">
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="15" t="s">
+      <c r="B13" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="21"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="20"/>
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="12"/>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="29"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="B16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>